--- a/TestCases20jan2021.xlsx
+++ b/TestCases20jan2021.xlsx
@@ -14,10 +14,13 @@
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
     <sheet name="BugReport" sheetId="2" r:id="rId2"/>
-    <sheet name="DC Care-Sales" sheetId="1" r:id="rId3"/>
-    <sheet name="NC Care-Sales" sheetId="5" r:id="rId4"/>
+    <sheet name="DC PMS SP" sheetId="1" r:id="rId3"/>
+    <sheet name="NC PMS SP" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">BugReport!$L$1:$L$39</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="419">
   <si>
     <t>Updated By:-</t>
   </si>
@@ -2550,9 +2553,6 @@
     <t>Bug ID_4</t>
   </si>
   <si>
-    <t>Bug ID_5</t>
-  </si>
-  <si>
     <t>Bug ID_6</t>
   </si>
   <si>
@@ -2565,18 +2565,6 @@
     <t>Bug ID_9</t>
   </si>
   <si>
-    <t>Bug ID_10</t>
-  </si>
-  <si>
-    <t>Bug ID_11</t>
-  </si>
-  <si>
-    <t>Bug ID_12</t>
-  </si>
-  <si>
-    <t>Bug ID_13</t>
-  </si>
-  <si>
     <t>Bug ID_14</t>
   </si>
   <si>
@@ -2604,9 +2592,6 @@
     <t>Bug ID_22</t>
   </si>
   <si>
-    <t>Bug ID_23</t>
-  </si>
-  <si>
     <t>Bug ID_24</t>
   </si>
   <si>
@@ -2631,9 +2616,6 @@
     <t>Bug ID_31</t>
   </si>
   <si>
-    <t>Bug ID_32</t>
-  </si>
-  <si>
     <t>Bug ID_33</t>
   </si>
   <si>
@@ -2643,9 +2625,6 @@
     <t>Bug ID_35</t>
   </si>
   <si>
-    <t>Bug ID_36</t>
-  </si>
-  <si>
     <t>Bug ID_37</t>
   </si>
   <si>
@@ -2661,18 +2640,12 @@
     <t>Bug ID_41</t>
   </si>
   <si>
-    <t>Bug ID_42</t>
-  </si>
-  <si>
     <t>Bug ID_43</t>
   </si>
   <si>
     <t>Bug ID_44</t>
   </si>
   <si>
-    <t>Lead Dev:Ranjeet</t>
-  </si>
-  <si>
     <t>Module</t>
   </si>
   <si>
@@ -2857,6 +2830,24 @@
   </si>
   <si>
     <t>NC PMS ServiceRequest_TC53</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Deferred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deferred </t>
+  </si>
+  <si>
+    <t>Suggestions</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Lead Dev:Apurwa</t>
   </si>
 </sst>
 </file>
@@ -2867,7 +2858,7 @@
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2878,11 +2869,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3038,12 +3024,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9CC2E5"/>
-        <bgColor rgb="FF9CC2E5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
         <bgColor rgb="FF00FF00"/>
       </patternFill>
@@ -3060,8 +3040,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF9CC2E5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -3173,12 +3159,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3186,254 +3209,258 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3721,10 +3748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:H9"/>
+  <dimension ref="D5:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D5" sqref="D5:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3733,93 +3760,121 @@
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="41.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D5" s="78" t="s">
-        <v>360</v>
-      </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-    </row>
-    <row r="6" spans="4:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="80" t="s">
-        <v>361</v>
-      </c>
-      <c r="E6" s="80" t="s">
-        <v>362</v>
-      </c>
-      <c r="F6" s="80" t="s">
-        <v>363</v>
-      </c>
-      <c r="G6" s="80" t="s">
-        <v>364</v>
-      </c>
-      <c r="H6" s="80" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="7" spans="4:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="80" t="s">
-        <v>367</v>
-      </c>
-      <c r="E7" s="81">
+    <row r="5" spans="4:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="87" t="s">
+        <v>418</v>
+      </c>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="89"/>
+    </row>
+    <row r="6" spans="4:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="65" t="s">
+        <v>351</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>352</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>353</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="H6" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="I6" s="83" t="s">
+        <v>416</v>
+      </c>
+      <c r="J6" s="84" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="65" t="s">
+        <v>357</v>
+      </c>
+      <c r="E7" s="66">
         <v>51</v>
       </c>
-      <c r="F7" s="81">
+      <c r="F7" s="66">
         <v>51</v>
       </c>
-      <c r="G7" s="82">
-        <v>29</v>
-      </c>
-      <c r="H7" s="83">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D8" s="80" t="s">
-        <v>368</v>
-      </c>
-      <c r="E8" s="81">
+      <c r="G7" s="67">
+        <v>45</v>
+      </c>
+      <c r="H7" s="68">
+        <v>0</v>
+      </c>
+      <c r="I7" s="46">
+        <v>2</v>
+      </c>
+      <c r="J7" s="46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="65" t="s">
+        <v>358</v>
+      </c>
+      <c r="E8" s="66">
         <v>53</v>
       </c>
-      <c r="F8" s="81">
+      <c r="F8" s="66">
         <v>53</v>
       </c>
-      <c r="G8" s="82">
-        <v>31</v>
-      </c>
-      <c r="H8" s="83">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D9" s="84" t="s">
-        <v>366</v>
-      </c>
-      <c r="E9" s="85">
+      <c r="G8" s="67">
+        <v>45</v>
+      </c>
+      <c r="H8" s="68">
+        <v>0</v>
+      </c>
+      <c r="I8" s="46">
+        <v>2</v>
+      </c>
+      <c r="J8" s="46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D9" s="69" t="s">
+        <v>356</v>
+      </c>
+      <c r="E9" s="70">
         <f>SUM(E7:E8)</f>
         <v>104</v>
       </c>
-      <c r="F9" s="85">
+      <c r="F9" s="70">
         <f>SUM(F7:F8)</f>
         <v>104</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G9" s="71">
         <f>SUM(G7:G8)</f>
-        <v>60</v>
-      </c>
-      <c r="H9" s="87">
-        <f>SUM(H7:H8)</f>
-        <v>44</v>
+        <v>90</v>
+      </c>
+      <c r="H9" s="72">
+        <v>0</v>
+      </c>
+      <c r="I9" s="46">
+        <f>SUM(I7:I8)</f>
+        <v>4</v>
+      </c>
+      <c r="J9" s="46">
+        <f>SUM(J7:J8)</f>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3827,10 +3882,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M48"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3845,1646 +3901,1330 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="73" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+    </row>
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="55" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="4" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="J2" s="76"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="74" t="s">
         <v>127</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="74"/>
+      <c r="C3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="100.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77">
+    <row r="5" spans="1:13" ht="100.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="64">
         <v>44224</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="47" t="s">
         <v>316</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="58" t="s">
+      <c r="D5" s="46"/>
+      <c r="E5" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56" t="s">
+      <c r="I5" s="46"/>
+      <c r="J5" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="K5" s="56" t="s">
+      <c r="K5" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="L5" s="56" t="s">
+      <c r="L5" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="M5" s="56" t="s">
+      <c r="M5" s="46" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="77">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="64">
         <v>44225</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="47" t="s">
         <v>317</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="61" t="s">
+      <c r="D6" s="50"/>
+      <c r="E6" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="56" t="s">
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="K6" s="56" t="s">
+      <c r="K6" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="L6" s="56" t="s">
+      <c r="L6" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="M6" s="56" t="s">
+      <c r="M6" s="46" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="77">
+    <row r="7" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="64">
         <v>44226</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="62" t="s">
+      <c r="D7" s="46"/>
+      <c r="E7" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="F7" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="63" t="s">
+      <c r="F7" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="H7" s="61" t="s">
+      <c r="H7" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56" t="s">
+      <c r="I7" s="46"/>
+      <c r="J7" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="K7" s="56" t="s">
+      <c r="K7" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="L7" s="56" t="s">
+      <c r="L7" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="M7" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="64">
+        <v>44227</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="53" t="s">
+        <v>156</v>
+      </c>
+      <c r="H8" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="M8" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="64">
+        <v>44229</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" s="46"/>
+      <c r="E9" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="K9" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="L9" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="M9" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="64">
+        <v>44230</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="K10" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="L10" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="M7" s="56" t="s">
+      <c r="M10" s="46" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="77">
-        <v>44227</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="57" t="s">
-        <v>319</v>
-      </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="64" t="s">
+    <row r="11" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="64">
+        <v>44231</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>322</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="K11" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="M11" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="64">
+        <v>44232</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="D12" s="46"/>
+      <c r="E12" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="M12" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="64">
+        <v>44237</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>324</v>
+      </c>
+      <c r="D13" s="46"/>
+      <c r="E13" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="M13" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="64">
+        <v>44238</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="M14" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="64">
+        <v>44239</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>326</v>
+      </c>
+      <c r="D15" s="46"/>
+      <c r="E15" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="64">
+        <v>44240</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="D16" s="46"/>
+      <c r="E16" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="L16" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="M16" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="64">
+        <v>44241</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>328</v>
+      </c>
+      <c r="D17" s="46"/>
+      <c r="E17" s="55" t="s">
+        <v>273</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="K17" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="L17" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="M17" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="64">
+        <v>44242</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="D18" s="46"/>
+      <c r="E18" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="F18" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="K18" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="L18" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="M18" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="64">
+        <v>44243</v>
+      </c>
+      <c r="B19" s="47" t="s">
+        <v>289</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="D19" s="46"/>
+      <c r="E19" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="F19" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="K19" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="L19" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="M19" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="64">
+        <v>44244</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>331</v>
+      </c>
+      <c r="D20" s="46"/>
+      <c r="E20" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="M20" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="64">
+        <v>44245</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>332</v>
+      </c>
+      <c r="D21" s="46"/>
+      <c r="E21" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="F21" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="L21" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="M21" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="64">
+        <v>44247</v>
+      </c>
+      <c r="B22" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>333</v>
+      </c>
+      <c r="D22" s="46"/>
+      <c r="E22" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="46"/>
+      <c r="G22" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="K22" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="L22" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="M22" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="64">
+        <v>44248</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>383</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="D23" s="46"/>
+      <c r="E23" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="F23" s="46"/>
+      <c r="G23" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="H23" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="L23" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="M23" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="64">
+        <v>44249</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>385</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="D24" s="46"/>
+      <c r="E24" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="F8" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="H8" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56" t="s">
+      <c r="F24" s="46"/>
+      <c r="G24" s="60" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" s="57"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="K8" s="56" t="s">
+      <c r="K24" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="L8" s="56" t="s">
+      <c r="L24" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="M24" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="64">
+        <v>44250</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>386</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="D25" s="46"/>
+      <c r="E25" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25" s="46"/>
+      <c r="G25" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="K25" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="L25" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="M25" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="64">
+        <v>44251</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="D26" s="46"/>
+      <c r="E26" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="46"/>
+      <c r="G26" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="H26" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="K26" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="L26" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="M26" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="64">
+        <v>44252</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>338</v>
+      </c>
+      <c r="D27" s="46"/>
+      <c r="E27" s="62" t="s">
+        <v>178</v>
+      </c>
+      <c r="F27" s="46"/>
+      <c r="G27" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="H27" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="K27" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="L27" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="M27" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="64">
+        <v>44253</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>339</v>
+      </c>
+      <c r="D28" s="46"/>
+      <c r="E28" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="46"/>
+      <c r="G28" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="K28" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="L28" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="M28" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" s="64">
+        <v>44254</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>340</v>
+      </c>
+      <c r="D29" s="46"/>
+      <c r="E29" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="F29" s="46"/>
+      <c r="G29" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="H29" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="K29" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="L29" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="M29" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="64">
+        <v>44256</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>341</v>
+      </c>
+      <c r="D30" s="46"/>
+      <c r="E30" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="F30" s="46"/>
+      <c r="G30" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="H30" s="63" t="s">
+        <v>186</v>
+      </c>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="K30" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="64">
+        <v>44257</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>342</v>
+      </c>
+      <c r="D31" s="46"/>
+      <c r="E31" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="F31" s="46"/>
+      <c r="G31" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="H31" s="63" t="s">
+        <v>189</v>
+      </c>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="K31" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="L31" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="M8" s="56" t="s">
+      <c r="M31" s="46" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="77">
-        <v>44228</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>203</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>320</v>
-      </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="64" t="s">
-        <v>226</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="H9" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56" t="s">
+    <row r="32" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="64">
+        <v>44258</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>343</v>
+      </c>
+      <c r="D32" s="46"/>
+      <c r="E32" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="F32" s="46"/>
+      <c r="G32" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="H32" s="63" t="s">
+        <v>193</v>
+      </c>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="K9" s="56" t="s">
+      <c r="K32" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="L9" s="56" t="s">
+      <c r="L32" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="M32" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="64">
+        <v>44260</v>
+      </c>
+      <c r="B33" s="47" t="s">
+        <v>285</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>344</v>
+      </c>
+      <c r="D33" s="46"/>
+      <c r="E33" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="F33" s="46"/>
+      <c r="G33" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="K33" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="L33" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="M33" s="46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="64">
+        <v>44261</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>287</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="D34" s="46"/>
+      <c r="E34" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="F34" s="46"/>
+      <c r="G34" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="H34" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="K34" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="L34" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="M9" s="56" t="s">
+      <c r="M34" s="46" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="77">
-        <v>44229</v>
-      </c>
-      <c r="B10" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>321</v>
-      </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="H10" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56" t="s">
+    <row r="35" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A35" s="64">
+        <v>44262</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>346</v>
+      </c>
+      <c r="D35" s="46"/>
+      <c r="E35" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="F35" s="46"/>
+      <c r="G35" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="H35" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="I35" s="46"/>
+      <c r="J35" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="K10" s="56" t="s">
+      <c r="K35" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="L10" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M10" s="56" t="s">
+      <c r="L35" s="46" t="s">
+        <v>414</v>
+      </c>
+      <c r="M35" s="46" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="77">
-        <v>44230</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" s="57" t="s">
-        <v>322</v>
-      </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="65" t="s">
-        <v>159</v>
-      </c>
-      <c r="F11" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="H11" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56" t="s">
+    <row r="36" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="64">
+        <v>44263</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>289</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>347</v>
+      </c>
+      <c r="D36" s="46"/>
+      <c r="E36" s="55" t="s">
+        <v>273</v>
+      </c>
+      <c r="F36" s="46"/>
+      <c r="G36" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="H36" s="50"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="K11" s="56" t="s">
+      <c r="K36" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="L11" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M11" s="56" t="s">
+      <c r="L36" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="M36" s="46" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A12" s="77">
-        <v>44231</v>
-      </c>
-      <c r="B12" s="57" t="s">
-        <v>206</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>323</v>
-      </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="65" t="s">
-        <v>159</v>
-      </c>
-      <c r="F12" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="60" t="s">
-        <v>222</v>
-      </c>
-      <c r="H12" s="60" t="s">
-        <v>221</v>
-      </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56" t="s">
+    <row r="37" spans="1:13" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="64">
+        <v>44264</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>290</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>348</v>
+      </c>
+      <c r="D37" s="46"/>
+      <c r="E37" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="F37" s="46"/>
+      <c r="G37" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="H37" s="50"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="K12" s="56" t="s">
+      <c r="K37" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="L12" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M12" s="56" t="s">
+      <c r="L37" s="46"/>
+      <c r="M37" s="46" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A13" s="77">
-        <v>44232</v>
-      </c>
-      <c r="B13" s="57" t="s">
-        <v>207</v>
-      </c>
-      <c r="C13" s="57" t="s">
-        <v>324</v>
-      </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="65" t="s">
-        <v>223</v>
-      </c>
-      <c r="F13" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="60" t="s">
-        <v>222</v>
-      </c>
-      <c r="H13" s="60" t="s">
-        <v>230</v>
-      </c>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56" t="s">
+    <row r="38" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="64">
+        <v>44266</v>
+      </c>
+      <c r="B38" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>349</v>
+      </c>
+      <c r="D38" s="46"/>
+      <c r="E38" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="F38" s="46"/>
+      <c r="G38" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="H38" s="50"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="K13" s="56" t="s">
+      <c r="K38" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="L13" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M13" s="56" t="s">
+      <c r="L38" s="46" t="s">
+        <v>413</v>
+      </c>
+      <c r="M38" s="46" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A14" s="77">
-        <v>44233</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>208</v>
-      </c>
-      <c r="C14" s="57" t="s">
-        <v>325</v>
-      </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="65" t="s">
-        <v>229</v>
-      </c>
-      <c r="F14" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="60" t="s">
-        <v>231</v>
-      </c>
-      <c r="H14" s="60" t="s">
-        <v>230</v>
-      </c>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56" t="s">
+    <row r="39" spans="1:13" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="64">
+        <v>44267</v>
+      </c>
+      <c r="B39" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="C39" s="47" t="s">
+        <v>350</v>
+      </c>
+      <c r="D39" s="46"/>
+      <c r="E39" s="55" t="s">
+        <v>309</v>
+      </c>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="K14" s="56" t="s">
+      <c r="K39" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="L14" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M14" s="56" t="s">
+      <c r="L39" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="M39" s="46" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A15" s="77">
-        <v>44234</v>
-      </c>
-      <c r="B15" s="57" t="s">
-        <v>209</v>
-      </c>
-      <c r="C15" s="57" t="s">
-        <v>326</v>
-      </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="65" t="s">
-        <v>232</v>
-      </c>
-      <c r="F15" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="60" t="s">
-        <v>231</v>
-      </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K15" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L15" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M15" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="77">
-        <v>44235</v>
-      </c>
-      <c r="B16" s="57" t="s">
-        <v>211</v>
-      </c>
-      <c r="C16" s="57" t="s">
-        <v>327</v>
-      </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="65" t="s">
-        <v>243</v>
-      </c>
-      <c r="F16" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="60" t="s">
-        <v>242</v>
-      </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K16" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L16" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M16" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A17" s="77">
-        <v>44236</v>
-      </c>
-      <c r="B17" s="57" t="s">
-        <v>212</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>328</v>
-      </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="65" t="s">
-        <v>248</v>
-      </c>
-      <c r="F17" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="60" t="s">
-        <v>246</v>
-      </c>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K17" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L17" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M17" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="77">
-        <v>44237</v>
-      </c>
-      <c r="B18" s="57" t="s">
-        <v>213</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>329</v>
-      </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="65" t="s">
-        <v>265</v>
-      </c>
-      <c r="F18" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="60" t="s">
-        <v>250</v>
-      </c>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K18" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L18" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M18" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="77">
-        <v>44238</v>
-      </c>
-      <c r="B19" s="57" t="s">
-        <v>283</v>
-      </c>
-      <c r="C19" s="57" t="s">
-        <v>330</v>
-      </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="65" t="s">
-        <v>257</v>
-      </c>
-      <c r="F19" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="60" t="s">
-        <v>256</v>
-      </c>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K19" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L19" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M19" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="77">
-        <v>44239</v>
-      </c>
-      <c r="B20" s="57" t="s">
-        <v>285</v>
-      </c>
-      <c r="C20" s="57" t="s">
-        <v>331</v>
-      </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="F20" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="60" t="s">
-        <v>269</v>
-      </c>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K20" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L20" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M20" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="77">
-        <v>44240</v>
-      </c>
-      <c r="B21" s="57" t="s">
-        <v>286</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>332</v>
-      </c>
-      <c r="D21" s="56"/>
-      <c r="E21" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="F21" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="60" t="s">
-        <v>272</v>
-      </c>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K21" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L21" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M21" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="77">
-        <v>44241</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>287</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>333</v>
-      </c>
-      <c r="D22" s="56"/>
-      <c r="E22" s="65" t="s">
-        <v>273</v>
-      </c>
-      <c r="F22" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="60" t="s">
-        <v>276</v>
-      </c>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K22" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L22" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M22" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="77">
-        <v>44242</v>
-      </c>
-      <c r="B23" s="57" t="s">
-        <v>288</v>
-      </c>
-      <c r="C23" s="57" t="s">
-        <v>334</v>
-      </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="F23" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="60" t="s">
-        <v>276</v>
-      </c>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K23" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L23" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M23" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="77">
-        <v>44243</v>
-      </c>
-      <c r="B24" s="57" t="s">
-        <v>289</v>
-      </c>
-      <c r="C24" s="57" t="s">
-        <v>335</v>
-      </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="F24" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="60" t="s">
-        <v>280</v>
-      </c>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K24" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L24" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M24" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="77">
-        <v>44244</v>
-      </c>
-      <c r="B25" s="57" t="s">
-        <v>290</v>
-      </c>
-      <c r="C25" s="57" t="s">
-        <v>336</v>
-      </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="65" t="s">
-        <v>281</v>
-      </c>
-      <c r="F25" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="60" t="s">
-        <v>307</v>
-      </c>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K25" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L25" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M25" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="77">
-        <v>44245</v>
-      </c>
-      <c r="B26" s="57" t="s">
-        <v>314</v>
-      </c>
-      <c r="C26" s="57" t="s">
-        <v>337</v>
-      </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="65" t="s">
-        <v>309</v>
-      </c>
-      <c r="F26" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="G26" s="60" t="s">
-        <v>307</v>
-      </c>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K26" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L26" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M26" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="77">
-        <v>44246</v>
-      </c>
-      <c r="B27" s="57" t="s">
-        <v>390</v>
-      </c>
-      <c r="C27" s="57" t="s">
-        <v>338</v>
-      </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="66" t="s">
-        <v>218</v>
-      </c>
-      <c r="F27" s="58"/>
-      <c r="G27" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="H27" s="68" t="s">
-        <v>170</v>
-      </c>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K27" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L27" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M27" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="77">
-        <v>44247</v>
-      </c>
-      <c r="B28" s="57" t="s">
-        <v>391</v>
-      </c>
-      <c r="C28" s="57" t="s">
-        <v>339</v>
-      </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="69" t="s">
-        <v>146</v>
-      </c>
-      <c r="F28" s="56"/>
-      <c r="G28" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="H28" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K28" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L28" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M28" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A29" s="77">
-        <v>44248</v>
-      </c>
-      <c r="B29" s="57" t="s">
-        <v>393</v>
-      </c>
-      <c r="C29" s="57" t="s">
-        <v>340</v>
-      </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="72" t="s">
-        <v>141</v>
-      </c>
-      <c r="F29" s="56"/>
-      <c r="G29" s="73" t="s">
-        <v>171</v>
-      </c>
-      <c r="H29" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K29" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L29" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M29" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="77">
-        <v>44249</v>
-      </c>
-      <c r="B30" s="57" t="s">
-        <v>395</v>
-      </c>
-      <c r="C30" s="57" t="s">
-        <v>341</v>
-      </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="74" t="s">
-        <v>150</v>
-      </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="H30" s="70"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K30" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L30" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M30" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A31" s="77">
-        <v>44250</v>
-      </c>
-      <c r="B31" s="57" t="s">
-        <v>396</v>
-      </c>
-      <c r="C31" s="57" t="s">
-        <v>342</v>
-      </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="74" t="s">
-        <v>153</v>
-      </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="73" t="s">
-        <v>154</v>
-      </c>
-      <c r="H31" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K31" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L31" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M31" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="77">
-        <v>44251</v>
-      </c>
-      <c r="B32" s="57" t="s">
-        <v>204</v>
-      </c>
-      <c r="C32" s="57" t="s">
-        <v>343</v>
-      </c>
-      <c r="D32" s="56"/>
-      <c r="E32" s="74" t="s">
-        <v>176</v>
-      </c>
-      <c r="F32" s="56"/>
-      <c r="G32" s="73" t="s">
-        <v>173</v>
-      </c>
-      <c r="H32" s="73" t="s">
-        <v>174</v>
-      </c>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K32" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L32" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M32" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A33" s="77">
-        <v>44252</v>
-      </c>
-      <c r="B33" s="57" t="s">
-        <v>205</v>
-      </c>
-      <c r="C33" s="57" t="s">
-        <v>344</v>
-      </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="75" t="s">
-        <v>178</v>
-      </c>
-      <c r="F33" s="56"/>
-      <c r="G33" s="76" t="s">
-        <v>157</v>
-      </c>
-      <c r="H33" s="76" t="s">
-        <v>177</v>
-      </c>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K33" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L33" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M33" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A34" s="77">
-        <v>44253</v>
-      </c>
-      <c r="B34" s="57" t="s">
-        <v>206</v>
-      </c>
-      <c r="C34" s="57" t="s">
-        <v>345</v>
-      </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="F34" s="56"/>
-      <c r="G34" s="76" t="s">
-        <v>164</v>
-      </c>
-      <c r="H34" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K34" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L34" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M34" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A35" s="77">
-        <v>44254</v>
-      </c>
-      <c r="B35" s="57" t="s">
-        <v>207</v>
-      </c>
-      <c r="C35" s="57" t="s">
-        <v>346</v>
-      </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="75" t="s">
-        <v>180</v>
-      </c>
-      <c r="F35" s="56"/>
-      <c r="G35" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="H35" s="76" t="s">
-        <v>179</v>
-      </c>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K35" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L35" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M35" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A36" s="77">
-        <v>44255</v>
-      </c>
-      <c r="B36" s="57" t="s">
-        <v>208</v>
-      </c>
-      <c r="C36" s="57" t="s">
-        <v>347</v>
-      </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="75" t="s">
-        <v>180</v>
-      </c>
-      <c r="F36" s="56"/>
-      <c r="G36" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="H36" s="76" t="s">
-        <v>179</v>
-      </c>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K36" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L36" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M36" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A37" s="77">
-        <v>44256</v>
-      </c>
-      <c r="B37" s="57" t="s">
-        <v>209</v>
-      </c>
-      <c r="C37" s="57" t="s">
-        <v>348</v>
-      </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="75" t="s">
-        <v>187</v>
-      </c>
-      <c r="F37" s="56"/>
-      <c r="G37" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="H37" s="76" t="s">
-        <v>186</v>
-      </c>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K37" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L37" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M37" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A38" s="77">
-        <v>44257</v>
-      </c>
-      <c r="B38" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="C38" s="57" t="s">
-        <v>349</v>
-      </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="75" t="s">
-        <v>192</v>
-      </c>
-      <c r="F38" s="56"/>
-      <c r="G38" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="H38" s="76" t="s">
-        <v>189</v>
-      </c>
-      <c r="I38" s="56"/>
-      <c r="J38" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K38" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L38" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M38" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A39" s="77">
-        <v>44258</v>
-      </c>
-      <c r="B39" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="57" t="s">
-        <v>350</v>
-      </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="75" t="s">
-        <v>196</v>
-      </c>
-      <c r="F39" s="56"/>
-      <c r="G39" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="H39" s="76" t="s">
-        <v>193</v>
-      </c>
-      <c r="I39" s="56"/>
-      <c r="J39" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K39" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L39" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M39" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A40" s="77">
-        <v>44259</v>
-      </c>
-      <c r="B40" s="57" t="s">
-        <v>283</v>
-      </c>
-      <c r="C40" s="57" t="s">
-        <v>351</v>
-      </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="75" t="s">
-        <v>196</v>
-      </c>
-      <c r="F40" s="56"/>
-      <c r="G40" s="76" t="s">
-        <v>181</v>
-      </c>
-      <c r="H40" s="76" t="s">
-        <v>193</v>
-      </c>
-      <c r="I40" s="56"/>
-      <c r="J40" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K40" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L40" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M40" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A41" s="77">
-        <v>44260</v>
-      </c>
-      <c r="B41" s="57" t="s">
-        <v>285</v>
-      </c>
-      <c r="C41" s="57" t="s">
-        <v>352</v>
-      </c>
-      <c r="D41" s="56"/>
-      <c r="E41" s="65" t="s">
-        <v>257</v>
-      </c>
-      <c r="F41" s="56"/>
-      <c r="G41" s="60" t="s">
-        <v>256</v>
-      </c>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K41" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L41" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M41" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A42" s="77">
-        <v>44261</v>
-      </c>
-      <c r="B42" s="57" t="s">
-        <v>287</v>
-      </c>
-      <c r="C42" s="57" t="s">
-        <v>353</v>
-      </c>
-      <c r="D42" s="56"/>
-      <c r="E42" s="65" t="s">
-        <v>293</v>
-      </c>
-      <c r="F42" s="56"/>
-      <c r="G42" s="60" t="s">
-        <v>270</v>
-      </c>
-      <c r="H42" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K42" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L42" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M42" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A43" s="77">
-        <v>44262</v>
-      </c>
-      <c r="B43" s="57" t="s">
-        <v>288</v>
-      </c>
-      <c r="C43" s="57" t="s">
-        <v>354</v>
-      </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="F43" s="56"/>
-      <c r="G43" s="60" t="s">
-        <v>269</v>
-      </c>
-      <c r="H43" s="60" t="s">
-        <v>266</v>
-      </c>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K43" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L43" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M43" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="77">
-        <v>44263</v>
-      </c>
-      <c r="B44" s="57" t="s">
-        <v>289</v>
-      </c>
-      <c r="C44" s="57" t="s">
-        <v>355</v>
-      </c>
-      <c r="D44" s="56"/>
-      <c r="E44" s="65" t="s">
-        <v>273</v>
-      </c>
-      <c r="F44" s="56"/>
-      <c r="G44" s="60" t="s">
-        <v>272</v>
-      </c>
-      <c r="H44" s="60"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K44" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L44" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M44" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A45" s="77">
-        <v>44264</v>
-      </c>
-      <c r="B45" s="57" t="s">
-        <v>290</v>
-      </c>
-      <c r="C45" s="57" t="s">
-        <v>356</v>
-      </c>
-      <c r="D45" s="56"/>
-      <c r="E45" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="F45" s="56"/>
-      <c r="G45" s="60" t="s">
-        <v>276</v>
-      </c>
-      <c r="H45" s="60"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K45" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L45" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M45" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="77">
-        <v>44265</v>
-      </c>
-      <c r="B46" s="57" t="s">
-        <v>310</v>
-      </c>
-      <c r="C46" s="57" t="s">
-        <v>357</v>
-      </c>
-      <c r="D46" s="56"/>
-      <c r="E46" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="F46" s="56"/>
-      <c r="G46" s="60" t="s">
-        <v>276</v>
-      </c>
-      <c r="H46" s="60"/>
-      <c r="I46" s="56"/>
-      <c r="J46" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K46" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L46" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M46" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="77">
-        <v>44266</v>
-      </c>
-      <c r="B47" s="57" t="s">
-        <v>311</v>
-      </c>
-      <c r="C47" s="57" t="s">
-        <v>358</v>
-      </c>
-      <c r="D47" s="56"/>
-      <c r="E47" s="65" t="s">
-        <v>281</v>
-      </c>
-      <c r="F47" s="56"/>
-      <c r="G47" s="60" t="s">
-        <v>280</v>
-      </c>
-      <c r="H47" s="60"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K47" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L47" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M47" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="77">
-        <v>44267</v>
-      </c>
-      <c r="B48" s="57" t="s">
-        <v>315</v>
-      </c>
-      <c r="C48" s="57" t="s">
-        <v>359</v>
-      </c>
-      <c r="D48" s="56"/>
-      <c r="E48" s="65" t="s">
-        <v>309</v>
-      </c>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="K48" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="L48" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="M48" s="56" t="s">
-        <v>138</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="L1:L39">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Deferred"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="6">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:B2"/>
@@ -5501,8 +5241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5519,803 +5259,857 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="18" t="s">
+      <c r="E2" s="80"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="81">
         <v>44216</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="78"/>
+      <c r="D3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="18" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="18" t="s">
+      <c r="F4" s="78"/>
+      <c r="G4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="14">
         <v>13445</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="H5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26" t="s">
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="85" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27" t="s">
+      <c r="F7" s="20"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="85" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27" t="s">
+      <c r="F8" s="20"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="85" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27" t="s">
+      <c r="F9" s="20"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="85" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="27" t="s">
+      <c r="C10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="85" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="27" t="s">
+      <c r="C11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="85" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="27" t="s">
+      <c r="C12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="27" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="85" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="27" t="s">
+      <c r="C13" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="27" t="s">
+      <c r="F13" s="20"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="85" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="27" t="s">
+      <c r="C14" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="27" t="s">
+      <c r="F14" s="20"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="85" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27" t="s">
+      <c r="F15" s="20"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="85" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="27" t="s">
+      <c r="C16" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="27" t="s">
+      <c r="E16" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27" t="s">
+      <c r="F16" s="20"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="85" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="27" t="s">
+      <c r="C17" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E17" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27" t="s">
+      <c r="F17" s="20"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="85" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="27" t="s">
+      <c r="C18" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="27" t="s">
+      <c r="F18" s="20"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-    </row>
-    <row r="19" spans="1:11" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="27" t="s">
+      <c r="C19" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="27" t="s">
+      <c r="E19" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="27" t="s">
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-    </row>
-    <row r="20" spans="1:11" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="27" t="s">
+      <c r="C20" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="27" t="s">
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="85" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="27" t="s">
+      <c r="C21" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="27" t="s">
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="85" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="27" t="s">
+      <c r="C22" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="27" t="s">
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="85" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="27" t="s">
+      <c r="C23" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="27" t="s">
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="85" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="27" t="s">
+      <c r="C24" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="27" t="s">
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="85" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="27" t="s">
+      <c r="C25" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="27" t="s">
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="85" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="27" t="s">
+      <c r="C26" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="29" t="s">
+      <c r="E26" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="F26" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="G26" s="28"/>
-      <c r="H26" s="27" t="s">
+      <c r="G26" s="21"/>
+      <c r="H26" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="85" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="12" t="s">
+      <c r="C27" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="F27" s="51" t="s">
+      <c r="F27" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="27" t="s">
+      <c r="G27" s="9"/>
+      <c r="H27" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="85" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="C28" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="12" t="s">
+      <c r="C28" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="30" t="s">
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="85" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="29" spans="1:11" s="1" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="F29" s="52" t="s">
+      <c r="F29" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="G29" s="12"/>
+      <c r="G29" s="10"/>
       <c r="H29" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="85" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="30" spans="1:11" s="1" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="G30" s="12"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="85" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="31" spans="1:11" s="1" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="25" t="s">
+      <c r="A31" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E31" s="12"/>
-      <c r="F31" s="53" t="s">
+      <c r="E31" s="10"/>
+      <c r="F31" s="45" t="s">
         <v>226</v>
       </c>
-      <c r="G31" s="12"/>
+      <c r="G31" s="10"/>
       <c r="H31" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="85" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="32" spans="1:11" s="1" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="18" t="s">
         <v>203</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C32" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="F32" s="53" t="s">
+      <c r="F32" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="G32" s="12"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-    </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="25" t="s">
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="1" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
         <v>204</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -6324,21 +6118,24 @@
       <c r="E33" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="49" t="s">
+      <c r="F33" s="41" t="s">
         <v>159</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="25" t="s">
+      <c r="K33" s="85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="1" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
         <v>205</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -6347,21 +6144,24 @@
       <c r="E34" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F34" s="49" t="s">
+      <c r="F34" s="41" t="s">
         <v>159</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="25" t="s">
+      <c r="K34" s="85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="1" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
         <v>206</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -6370,21 +6170,24 @@
       <c r="E35" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F35" s="49" t="s">
+      <c r="F35" s="41" t="s">
         <v>223</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="25" t="s">
+      <c r="K35" s="85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="1" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
         <v>207</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -6393,21 +6196,24 @@
       <c r="E36" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F36" s="49" t="s">
+      <c r="F36" s="41" t="s">
         <v>229</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" s="1" customFormat="1" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="25" t="s">
+      <c r="K36" s="85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="1" customFormat="1" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
         <v>208</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C37" s="27" t="s">
+      <c r="C37" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -6416,39 +6222,45 @@
       <c r="E37" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F37" s="49" t="s">
+      <c r="F37" s="41" t="s">
         <v>232</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" s="1" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="25" t="s">
+      <c r="K37" s="85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="1" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
         <v>209</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C38" s="27" t="s">
+      <c r="C38" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F38" s="10"/>
+      <c r="F38" s="8"/>
       <c r="H38" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="25" t="s">
+      <c r="K38" s="85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="1" customFormat="1" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
         <v>210</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -6460,35 +6272,41 @@
       <c r="H39" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="25" t="s">
+      <c r="K39" s="85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="1" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
         <v>211</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F40" s="49" t="s">
+      <c r="F40" s="41" t="s">
         <v>243</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" s="1" customFormat="1" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="25" t="s">
+      <c r="K40" s="85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="1" customFormat="1" ht="210.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="s">
         <v>212</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C41" s="27" t="s">
+      <c r="C41" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -6497,41 +6315,47 @@
       <c r="E41" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F41" s="49" t="s">
+      <c r="F41" s="41" t="s">
         <v>248</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="25" t="s">
+      <c r="K41" s="85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="1" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="18" t="s">
         <v>213</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F42" s="49" t="s">
+      <c r="F42" s="41" t="s">
         <v>265</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" s="1" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="25" t="s">
+      <c r="K42" s="85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="1" customFormat="1" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="18" t="s">
         <v>214</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C43" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -6543,35 +6367,41 @@
       <c r="H43" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" s="1" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="25" t="s">
+      <c r="K43" s="85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="1" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
         <v>283</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C44" s="27" t="s">
+      <c r="C44" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F44" s="49" t="s">
+      <c r="F44" s="41" t="s">
         <v>257</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" s="1" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="25" t="s">
+      <c r="K44" s="85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="1" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
         <v>284</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -6586,15 +6416,18 @@
       <c r="H45" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" s="1" customFormat="1" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="25" t="s">
+      <c r="K45" s="85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="1" customFormat="1" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="18" t="s">
         <v>285</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -6603,21 +6436,24 @@
       <c r="E46" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F46" s="49" t="s">
+      <c r="F46" s="41" t="s">
         <v>267</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" s="1" customFormat="1" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="25" t="s">
+      <c r="K46" s="85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="1" customFormat="1" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="s">
         <v>286</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -6626,101 +6462,116 @@
       <c r="E47" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F47" s="49" t="s">
+      <c r="F47" s="41" t="s">
         <v>267</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="25" t="s">
+      <c r="K47" s="85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="1" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="18" t="s">
         <v>287</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="F48" s="49" t="s">
+      <c r="F48" s="41" t="s">
         <v>273</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="25" t="s">
+      <c r="K48" s="85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="1" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="18" t="s">
         <v>288</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F49" s="49" t="s">
+      <c r="F49" s="41" t="s">
         <v>277</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="25" t="s">
+      <c r="K49" s="85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="1" customFormat="1" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="18" t="s">
         <v>289</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F50" s="49" t="s">
+      <c r="F50" s="41" t="s">
         <v>277</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="25" t="s">
+      <c r="K50" s="85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="1" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="18" t="s">
         <v>290</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F51" s="49" t="s">
+      <c r="F51" s="41" t="s">
         <v>281</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="25" t="s">
+      <c r="K51" s="85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="1" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="18" t="s">
         <v>310</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -6732,15 +6583,18 @@
       <c r="H52" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="25" t="s">
+      <c r="K52" s="85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="1" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="18" t="s">
         <v>311</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -6752,15 +6606,18 @@
       <c r="H53" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="25" t="s">
+      <c r="K53" s="85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="1" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="18" t="s">
         <v>312</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -6772,15 +6629,18 @@
       <c r="H54" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="25" t="s">
+      <c r="K54" s="85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="1" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="18" t="s">
         <v>313</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -6792,37 +6652,43 @@
       <c r="H55" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="25" t="s">
+      <c r="K55" s="85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="1" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="18" t="s">
         <v>314</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C56" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>307</v>
       </c>
       <c r="E56"/>
-      <c r="F56" s="49" t="s">
+      <c r="F56" s="41" t="s">
         <v>309</v>
       </c>
       <c r="G56"/>
       <c r="H56" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="K56" s="85" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="66" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="67" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -6848,8 +6714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A58"/>
+    <sheetView topLeftCell="E55" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6859,1091 +6725,1177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="18" t="s">
+      <c r="E2" s="80"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="81">
         <v>44216</v>
       </c>
-      <c r="C3" s="32"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="82"/>
+      <c r="D3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="18" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="79" t="s">
+        <v>359</v>
+      </c>
+      <c r="F4" s="82"/>
+      <c r="G4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="14">
+        <v>13445</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="154.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="26"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="26"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="18">
-        <v>13445</v>
-      </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="B15" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
         <v>370</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-    </row>
-    <row r="7" spans="1:11" ht="154.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="B16" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="26"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" s="34" t="s">
+      <c r="B17" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-    </row>
-    <row r="8" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="F17" s="26"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="E8" s="34" t="s">
+      <c r="B18" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-    </row>
-    <row r="9" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="F18" s="26"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-    </row>
-    <row r="10" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="B19" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-    </row>
-    <row r="11" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="B20" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-    </row>
-    <row r="12" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="B21" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-    </row>
-    <row r="13" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="B22" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="B13" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-    </row>
-    <row r="14" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="B23" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-    </row>
-    <row r="15" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="B24" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-    </row>
-    <row r="16" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="B25" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="B16" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-    </row>
-    <row r="17" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="B26" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="G26" s="28"/>
+      <c r="H26" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="B17" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-    </row>
-    <row r="18" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
+      <c r="B27" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="27"/>
+      <c r="H27" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
         <v>382</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-    </row>
-    <row r="19" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
+      <c r="B28" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="B19" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-    </row>
-    <row r="20" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="25" t="s">
+      <c r="B29" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="31"/>
+      <c r="H29" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="B20" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-    </row>
-    <row r="21" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="25" t="s">
+      <c r="B30" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="31"/>
+      <c r="H30" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="B21" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-    </row>
-    <row r="22" spans="1:11" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="25" t="s">
+      <c r="B31" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="31"/>
+      <c r="F31" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="G31" s="31"/>
+      <c r="H31" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="B22" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-    </row>
-    <row r="23" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="25" t="s">
+      <c r="B32" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="G32" s="31"/>
+      <c r="H32" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="B23" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-    </row>
-    <row r="24" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
+      <c r="B33" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="E33" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="F33" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="G33" s="31"/>
+      <c r="H33" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="B24" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-    </row>
-    <row r="25" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="25" t="s">
+      <c r="B34" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>177</v>
+      </c>
+      <c r="F34" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="18" t="s">
         <v>389</v>
       </c>
-      <c r="B25" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-    </row>
-    <row r="26" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
+      <c r="B35" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="B26" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="F26" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="G26" s="36"/>
-      <c r="H26" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-    </row>
-    <row r="27" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
+      <c r="B36" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="18" t="s">
         <v>391</v>
       </c>
-      <c r="B27" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F27" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-    </row>
-    <row r="28" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
+      <c r="B37" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="K37" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="B28" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-    </row>
-    <row r="29" spans="1:11" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
+      <c r="B38" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="K38" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="B29" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="41" t="s">
-        <v>171</v>
-      </c>
-      <c r="E29" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="F29" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="G29" s="39"/>
-      <c r="H29" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39"/>
-    </row>
-    <row r="30" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="25" t="s">
+      <c r="B39" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="H39" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="K39" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="B30" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="41" t="s">
-        <v>156</v>
-      </c>
-      <c r="E30" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="F30" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="G30" s="39"/>
-      <c r="H30" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-    </row>
-    <row r="31" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="25" t="s">
+      <c r="B40" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="F40" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="H40" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="K40" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="B31" s="41" t="s">
-        <v>219</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="E31" s="39"/>
-      <c r="F31" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="G31" s="39"/>
-      <c r="H31" s="41" t="s">
-        <v>151</v>
-      </c>
-      <c r="I31" s="39"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
-    </row>
-    <row r="32" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="25" t="s">
+      <c r="B41" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="F41" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="H41" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="K41" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="B32" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="E32" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="F32" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="G32" s="39"/>
-      <c r="H32" s="41" t="s">
-        <v>152</v>
-      </c>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39"/>
-    </row>
-    <row r="33" spans="1:11" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="25" t="s">
+      <c r="B42" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="F42" s="39"/>
+      <c r="H42" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="K42" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="18" t="s">
         <v>397</v>
       </c>
-      <c r="B33" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="E33" s="41" t="s">
-        <v>174</v>
-      </c>
-      <c r="F33" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="G33" s="39"/>
-      <c r="H33" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-    </row>
-    <row r="34" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="25" t="s">
+      <c r="B43" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="F43" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="H43" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="K43" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
         <v>398</v>
       </c>
-      <c r="B34" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="E34" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="F34" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="42"/>
-    </row>
-    <row r="35" spans="1:11" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="25" t="s">
+      <c r="B44" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="F44" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="H44" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="K44" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
         <v>399</v>
-      </c>
-      <c r="B35" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="C35" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="E35" s="42" t="s">
-        <v>199</v>
-      </c>
-      <c r="F35" s="46" t="s">
-        <v>200</v>
-      </c>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-    </row>
-    <row r="36" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="B36" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="C36" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="E36" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="F36" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
-    </row>
-    <row r="37" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="25" t="s">
-        <v>401</v>
-      </c>
-      <c r="B37" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="C37" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="E37" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="F37" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="H37" s="42" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="25" t="s">
-        <v>402</v>
-      </c>
-      <c r="B38" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="C38" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="E38" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="F38" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="H38" s="42" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="25" t="s">
-        <v>403</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="C39" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="E39" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="F39" s="46" t="s">
-        <v>192</v>
-      </c>
-      <c r="H39" s="42" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="25" t="s">
-        <v>404</v>
-      </c>
-      <c r="B40" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="E40" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="F40" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="H40" s="42" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="25" t="s">
-        <v>405</v>
-      </c>
-      <c r="B41" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="C41" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="E41" s="42" t="s">
-        <v>189</v>
-      </c>
-      <c r="F41" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="H41" s="42" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="25" t="s">
-        <v>406</v>
-      </c>
-      <c r="B42" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="E42" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="F42" s="47"/>
-      <c r="H42" s="42" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="25" t="s">
-        <v>407</v>
-      </c>
-      <c r="B43" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="E43" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="F43" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="H43" s="42" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="25" t="s">
-        <v>408</v>
-      </c>
-      <c r="B44" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="E44" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="F44" s="46" t="s">
-        <v>196</v>
-      </c>
-      <c r="H44" s="42" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="25" t="s">
-        <v>409</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="C45" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -7957,37 +7909,43 @@
       <c r="H45" s="1" t="s">
         <v>255</v>
       </c>
+      <c r="K45" s="86" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="46" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="25" t="s">
-        <v>410</v>
+      <c r="A46" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>256</v>
       </c>
       <c r="E46" s="1"/>
-      <c r="F46" s="49" t="s">
+      <c r="F46" s="41" t="s">
         <v>257</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
         <v>258</v>
       </c>
+      <c r="K46" s="86" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="47" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="25" t="s">
-        <v>411</v>
+      <c r="A47" s="18" t="s">
+        <v>401</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -8003,15 +7961,18 @@
       <c r="H47" s="1" t="s">
         <v>263</v>
       </c>
+      <c r="K47" s="86" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="48" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="25" t="s">
-        <v>412</v>
+      <c r="A48" s="18" t="s">
+        <v>402</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -8020,22 +7981,25 @@
       <c r="E48" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F48" s="49" t="s">
+      <c r="F48" s="41" t="s">
         <v>293</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="25" t="s">
-        <v>413</v>
+      <c r="K48" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="18" t="s">
+        <v>403</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -8044,110 +8008,125 @@
       <c r="E49" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F49" s="49" t="s">
+      <c r="F49" s="41" t="s">
         <v>267</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="25" t="s">
-        <v>414</v>
+      <c r="K49" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="18" t="s">
+        <v>404</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C50" s="27" t="s">
+      <c r="C50" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>272</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="49" t="s">
+      <c r="F50" s="41" t="s">
         <v>273</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="25" t="s">
-        <v>415</v>
+      <c r="K50" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="18" t="s">
+        <v>405</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C51" s="27" t="s">
+      <c r="C51" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>276</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="49" t="s">
+      <c r="F51" s="41" t="s">
         <v>277</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="25" t="s">
-        <v>416</v>
+      <c r="K51" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="18" t="s">
+        <v>406</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>276</v>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="49" t="s">
+      <c r="F52" s="41" t="s">
         <v>277</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="25" t="s">
-        <v>417</v>
+      <c r="K52" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="18" t="s">
+        <v>407</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C53" s="27" t="s">
+      <c r="C53" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="49" t="s">
+      <c r="F53" s="41" t="s">
         <v>281</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="25" t="s">
-        <v>418</v>
+      <c r="K53" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="18" t="s">
+        <v>408</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C54" s="27" t="s">
+      <c r="C54" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -8156,15 +8135,18 @@
       <c r="H54" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="25" t="s">
-        <v>419</v>
+      <c r="K54" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="18" t="s">
+        <v>409</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C55" s="27" t="s">
+      <c r="C55" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -8173,15 +8155,18 @@
       <c r="H55" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="25" t="s">
-        <v>420</v>
+      <c r="K55" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="18" t="s">
+        <v>410</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C56" s="27" t="s">
+      <c r="C56" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -8190,15 +8175,18 @@
       <c r="H56" s="1" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="25" t="s">
-        <v>421</v>
+      <c r="K56" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="18" t="s">
+        <v>411</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -8207,36 +8195,42 @@
       <c r="H57" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="25" t="s">
-        <v>422</v>
+      <c r="K57" s="86" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="18" t="s">
+        <v>412</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C58" s="27" t="s">
+      <c r="C58" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="F58" s="49" t="s">
+      <c r="F58" s="41" t="s">
         <v>309</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>308</v>
       </c>
+      <c r="K58" s="86" t="s">
+        <v>417</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
